--- a/employeeUpload/LoanUpload.xlsx
+++ b/employeeUpload/LoanUpload.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ELendingTool\employeeUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB227D37-D79A-455D-B066-7088044B01E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3DA8E8-6429-4E1F-B37F-A028E42E4611}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="2" r:id="rId1"/>
-    <sheet name="SELECTIONS" sheetId="3" r:id="rId2"/>
+    <sheet name="LOAN DETAILS" sheetId="2" r:id="rId1"/>
+    <sheet name="ADDITIONAL CHARGES" sheetId="3" r:id="rId2"/>
+    <sheet name="PAYMENTS" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,839 +30,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
-    <t>SALUTATION</t>
+    <t>LOAN APPLICATION #</t>
   </si>
   <si>
-    <t>LAST NAME *</t>
+    <t>LOAN TYPE</t>
   </si>
   <si>
-    <t>FIRST NAME *</t>
+    <t>LOAN AMOUNT</t>
   </si>
   <si>
-    <t>MIDDLE NAME</t>
+    <t>SOURCE NAME
+(If source selected is through agent)</t>
   </si>
   <si>
-    <t>EXTENSION NAME</t>
+    <t>PURPOSE</t>
   </si>
   <si>
-    <t>SALUTATION*</t>
+    <t>DISBURSED BY</t>
   </si>
   <si>
-    <t>GENDER</t>
+    <t>TERM TYPE</t>
   </si>
   <si>
-    <t>NATIONALITY</t>
+    <t>TERM</t>
   </si>
   <si>
-    <t>CIVIL STATUS</t>
+    <t>REPAYMENT CYCLE</t>
   </si>
   <si>
-    <t>DATE OF BIRTH (YYYY-DD-MM) *</t>
+    <t>NO. OF REPAYMENTS</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>INTEREST TYPE</t>
   </si>
   <si>
-    <t>Female</t>
+    <t>INTEREST AMOUNT</t>
   </si>
   <si>
-    <t>Married</t>
+    <t>INTEREST FREQUENCY</t>
   </si>
   <si>
-    <t>Widowed</t>
+    <t>CHARGE NAME</t>
   </si>
   <si>
-    <t>Single</t>
+    <t>CHARGE TYPE
+(PERCENTAGE/FIXED)</t>
   </si>
   <si>
-    <t>Manager</t>
+    <t>AMOUNT</t>
   </si>
   <si>
-    <t>Employee</t>
+    <t>BORROWER MONTHLY SALARY</t>
   </si>
   <si>
-    <t>GENDER *</t>
+    <t>SPOUSE'S MONTHLY SALARY</t>
   </si>
   <si>
-    <t>NATIONALITY *</t>
+    <t>CURRENT STATUS</t>
   </si>
   <si>
-    <t>CIVIL STATUS *</t>
+    <t>SOURCE
+(WALK-IN / THROUGH AGENT)</t>
   </si>
   <si>
-    <t>POSITION *</t>
+    <t>TYPE OF COLLECTION
+(PRINCIPAL COLLECTION / INTEREST / OTHERS)</t>
   </si>
   <si>
-    <t>TYPE OF EMPLOYEE *
-EMPLOYEE | MANAGER</t>
+    <t>AMOUNT PAID</t>
   </si>
   <si>
-    <t>BRANCH *</t>
+    <t>CHANGE</t>
   </si>
   <si>
-    <t>DATE HIRED (YYYY-DD-MM) *</t>
+    <t>CHANGE SENT THROUGH</t>
   </si>
   <si>
-    <t>Mr.</t>
+    <t>PAYMENT METHOD</t>
   </si>
   <si>
-    <t>Mrs.</t>
+    <t>BANK</t>
   </si>
   <si>
-    <t>Ms.</t>
+    <t>REMARKS</t>
   </si>
   <si>
-    <t>Afghan</t>
+    <t>PAYMENT DATE
+YYYY-MM-DD</t>
   </si>
   <si>
-    <t>Åland Island</t>
+    <t>COLLECTION DATE
+YYYY-MM-DD</t>
   </si>
   <si>
-    <t>Albanian</t>
+    <t>BRANCH</t>
   </si>
   <si>
-    <t>Algerian</t>
-  </si>
-  <si>
-    <t>American Samoan</t>
-  </si>
-  <si>
-    <t>Andorran</t>
-  </si>
-  <si>
-    <t>Angolan</t>
-  </si>
-  <si>
-    <t>Anguillan</t>
-  </si>
-  <si>
-    <t>Antarctic</t>
-  </si>
-  <si>
-    <t>Antiguan or Barbudan</t>
-  </si>
-  <si>
-    <t>Argentine</t>
-  </si>
-  <si>
-    <t>Armenian</t>
-  </si>
-  <si>
-    <t>Aruban</t>
-  </si>
-  <si>
-    <t>Australian</t>
-  </si>
-  <si>
-    <t>Austrian</t>
-  </si>
-  <si>
-    <t>Azerbaijani, Azeri</t>
-  </si>
-  <si>
-    <t>Bahamian</t>
-  </si>
-  <si>
-    <t>Bahraini</t>
-  </si>
-  <si>
-    <t>Bangladeshi</t>
-  </si>
-  <si>
-    <t>Barbadian</t>
-  </si>
-  <si>
-    <t>Belarusian</t>
-  </si>
-  <si>
-    <t>Belgian</t>
-  </si>
-  <si>
-    <t>Belizean</t>
-  </si>
-  <si>
-    <t>Beninese, Beninois</t>
-  </si>
-  <si>
-    <t>Bermudian, Bermudan</t>
-  </si>
-  <si>
-    <t>Bhutanese</t>
-  </si>
-  <si>
-    <t>Bolivian</t>
-  </si>
-  <si>
-    <t>Bonaire</t>
-  </si>
-  <si>
-    <t>Bosnian or Herzegovinian</t>
-  </si>
-  <si>
-    <t>Motswana, Botswanan</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazilian</t>
-  </si>
-  <si>
-    <t>BIOT</t>
-  </si>
-  <si>
-    <t>Bruneian</t>
-  </si>
-  <si>
-    <t>Bulgarian</t>
-  </si>
-  <si>
-    <t>Burkinabé</t>
-  </si>
-  <si>
-    <t>Burundian</t>
-  </si>
-  <si>
-    <t>Cabo Verdean</t>
-  </si>
-  <si>
-    <t>Cambodian</t>
-  </si>
-  <si>
-    <t>Cameroonian</t>
-  </si>
-  <si>
-    <t>Canadian</t>
-  </si>
-  <si>
-    <t>Caymanian</t>
-  </si>
-  <si>
-    <t>Central African</t>
-  </si>
-  <si>
-    <t>Chadian</t>
-  </si>
-  <si>
-    <t>Chilean</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Cocos Island</t>
-  </si>
-  <si>
-    <t>Colombian</t>
-  </si>
-  <si>
-    <t>Comoran, Comorian</t>
-  </si>
-  <si>
-    <t>Congolese</t>
-  </si>
-  <si>
-    <t>Cook Island</t>
-  </si>
-  <si>
-    <t>Costa Rican</t>
-  </si>
-  <si>
-    <t>Ivorian</t>
-  </si>
-  <si>
-    <t>Croatian</t>
-  </si>
-  <si>
-    <t>Cuban</t>
-  </si>
-  <si>
-    <t>Curaçaoan</t>
-  </si>
-  <si>
-    <t>Cypriot</t>
-  </si>
-  <si>
-    <t>Czech</t>
-  </si>
-  <si>
-    <t>Danish</t>
-  </si>
-  <si>
-    <t>Djiboutian</t>
-  </si>
-  <si>
-    <t>Dominican</t>
-  </si>
-  <si>
-    <t>Ecuadorian</t>
-  </si>
-  <si>
-    <t>Egyptian</t>
-  </si>
-  <si>
-    <t>Salvadoran</t>
-  </si>
-  <si>
-    <t>Equatorial Guinean, Equatoguinean</t>
-  </si>
-  <si>
-    <t>Eritrean</t>
-  </si>
-  <si>
-    <t>Estonian</t>
-  </si>
-  <si>
-    <t>Ethiopian</t>
-  </si>
-  <si>
-    <t>Falkland Island</t>
-  </si>
-  <si>
-    <t>Faroese</t>
-  </si>
-  <si>
-    <t>Fijian</t>
-  </si>
-  <si>
-    <t>Finnish</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>French Guianese</t>
-  </si>
-  <si>
-    <t>French Polynesian</t>
-  </si>
-  <si>
-    <t>French Southern Territories</t>
-  </si>
-  <si>
-    <t>Gabonese</t>
-  </si>
-  <si>
-    <t>Gambian</t>
-  </si>
-  <si>
-    <t>Georgian</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Ghanaian</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Greek, Hellenic</t>
-  </si>
-  <si>
-    <t>Greenlandic</t>
-  </si>
-  <si>
-    <t>Grenadian</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guamanian, Guambat</t>
-  </si>
-  <si>
-    <t>Guatemalan</t>
-  </si>
-  <si>
-    <t>Channel Island</t>
-  </si>
-  <si>
-    <t>Guinean</t>
-  </si>
-  <si>
-    <t>Bissau-Guinean</t>
-  </si>
-  <si>
-    <t>Guyanese</t>
-  </si>
-  <si>
-    <t>Haitian</t>
-  </si>
-  <si>
-    <t>Heard Island or McDonald Islands</t>
-  </si>
-  <si>
-    <t>Vatican</t>
-  </si>
-  <si>
-    <t>Honduran</t>
-  </si>
-  <si>
-    <t>Hong Kong, Hong Kongese</t>
-  </si>
-  <si>
-    <t>Hungarian, Magyar</t>
-  </si>
-  <si>
-    <t>Icelandic</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>Indonesian</t>
-  </si>
-  <si>
-    <t>Iranian, Persian</t>
-  </si>
-  <si>
-    <t>Iraqi</t>
-  </si>
-  <si>
-    <t>Irish</t>
-  </si>
-  <si>
-    <t>Manx</t>
-  </si>
-  <si>
-    <t>Israeli</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>Jamaican</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>Jordanian</t>
-  </si>
-  <si>
-    <t>Kazakhstani, Kazakh</t>
-  </si>
-  <si>
-    <t>Kenyan</t>
-  </si>
-  <si>
-    <t>I-Kiribati</t>
-  </si>
-  <si>
-    <t>North Korean</t>
-  </si>
-  <si>
-    <t>South Korean</t>
-  </si>
-  <si>
-    <t>Kuwaiti</t>
-  </si>
-  <si>
-    <t>Kyrgyzstani, Kyrgyz, Kirgiz, Kirghiz</t>
-  </si>
-  <si>
-    <t>Lao, Laotian</t>
-  </si>
-  <si>
-    <t>Latvian</t>
-  </si>
-  <si>
-    <t>Lebanese</t>
-  </si>
-  <si>
-    <t>Basotho</t>
-  </si>
-  <si>
-    <t>Liberian</t>
-  </si>
-  <si>
-    <t>Libyan</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuanian</t>
-  </si>
-  <si>
-    <t>Luxembourg, Luxembourgish</t>
-  </si>
-  <si>
-    <t>Macanese, Chinese</t>
-  </si>
-  <si>
-    <t>Macedonian</t>
-  </si>
-  <si>
-    <t>Malagasy</t>
-  </si>
-  <si>
-    <t>Malawian</t>
-  </si>
-  <si>
-    <t>Malaysian</t>
-  </si>
-  <si>
-    <t>Maldivian</t>
-  </si>
-  <si>
-    <t>Malian, Malinese</t>
-  </si>
-  <si>
-    <t>Maltese</t>
-  </si>
-  <si>
-    <t>Marshallese</t>
-  </si>
-  <si>
-    <t>Martiniquais, Martinican</t>
-  </si>
-  <si>
-    <t>Mauritanian</t>
-  </si>
-  <si>
-    <t>Mauritian</t>
-  </si>
-  <si>
-    <t>Mahoran</t>
-  </si>
-  <si>
-    <t>Mexican</t>
-  </si>
-  <si>
-    <t>Micronesian</t>
-  </si>
-  <si>
-    <t>Moldovan</t>
-  </si>
-  <si>
-    <t>Monégasque, Monacan</t>
-  </si>
-  <si>
-    <t>Mongolian</t>
-  </si>
-  <si>
-    <t>Montenegrin</t>
-  </si>
-  <si>
-    <t>Montserratian</t>
-  </si>
-  <si>
-    <t>Moroccan</t>
-  </si>
-  <si>
-    <t>Mozambican</t>
-  </si>
-  <si>
-    <t>Burmese</t>
-  </si>
-  <si>
-    <t>Namibian</t>
-  </si>
-  <si>
-    <t>Nauruan</t>
-  </si>
-  <si>
-    <t>Nepali, Nepalese</t>
-  </si>
-  <si>
-    <t>Dutch, Netherlandic</t>
-  </si>
-  <si>
-    <t>New Caledonian</t>
-  </si>
-  <si>
-    <t>New Zealand, NZ</t>
-  </si>
-  <si>
-    <t>Nicaraguan</t>
-  </si>
-  <si>
-    <t>Nigerien</t>
-  </si>
-  <si>
-    <t>Nigerian</t>
-  </si>
-  <si>
-    <t>Niuean</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>Northern Marianan</t>
-  </si>
-  <si>
-    <t>Norwegian</t>
-  </si>
-  <si>
-    <t>Omani</t>
-  </si>
-  <si>
-    <t>Pakistani</t>
-  </si>
-  <si>
-    <t>Palauan</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>Panamanian</t>
-  </si>
-  <si>
-    <t>Papua New Guinean, Papuan</t>
-  </si>
-  <si>
-    <t>Paraguayan</t>
-  </si>
-  <si>
-    <t>Peruvian</t>
-  </si>
-  <si>
-    <t>Philippine, Filipino</t>
-  </si>
-  <si>
-    <t>Pitcairn Island</t>
-  </si>
-  <si>
-    <t>Polish</t>
-  </si>
-  <si>
-    <t>Portuguese</t>
-  </si>
-  <si>
-    <t>Puerto Rican</t>
-  </si>
-  <si>
-    <t>Qatari</t>
-  </si>
-  <si>
-    <t>Réunionese, Réunionnais</t>
-  </si>
-  <si>
-    <t>Romanian</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
-    <t>Rwandan</t>
-  </si>
-  <si>
-    <t>Barthélemois</t>
-  </si>
-  <si>
-    <t>Saint Helenian</t>
-  </si>
-  <si>
-    <t>Kittitian or Nevisian</t>
-  </si>
-  <si>
-    <t>Saint Lucian</t>
-  </si>
-  <si>
-    <t>Saint-Martinoise</t>
-  </si>
-  <si>
-    <t>Saint-Pierrais or Miquelonnais</t>
-  </si>
-  <si>
-    <t>Saint Vincentian, Vincentian</t>
-  </si>
-  <si>
-    <t>Samoan</t>
-  </si>
-  <si>
-    <t>Sammarinese</t>
-  </si>
-  <si>
-    <t>São Toméan</t>
-  </si>
-  <si>
-    <t>Saudi, Saudi Arabian</t>
-  </si>
-  <si>
-    <t>Senegalese</t>
-  </si>
-  <si>
-    <t>Serbian</t>
-  </si>
-  <si>
-    <t>Seychellois</t>
-  </si>
-  <si>
-    <t>Sierra Leonean</t>
-  </si>
-  <si>
-    <t>Singaporean</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovak</t>
-  </si>
-  <si>
-    <t>Slovenian, Slovene</t>
-  </si>
-  <si>
-    <t>Solomon Island</t>
-  </si>
-  <si>
-    <t>Somali, Somalian</t>
-  </si>
-  <si>
-    <t>South African</t>
-  </si>
-  <si>
-    <t>South Georgia or South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Sudanese</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Sri Lankan</t>
-  </si>
-  <si>
-    <t>Sudanese</t>
-  </si>
-  <si>
-    <t>Surinamese</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swazi</t>
-  </si>
-  <si>
-    <t>Swedish</t>
-  </si>
-  <si>
-    <t>Swiss</t>
-  </si>
-  <si>
-    <t>Syrian</t>
-  </si>
-  <si>
-    <t>Chinese, Taiwanese</t>
-  </si>
-  <si>
-    <t>Tajikistani</t>
-  </si>
-  <si>
-    <t>Tanzanian</t>
-  </si>
-  <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>Timorese</t>
-  </si>
-  <si>
-    <t>Togolese</t>
-  </si>
-  <si>
-    <t>Tokelauan</t>
-  </si>
-  <si>
-    <t>Tongan</t>
-  </si>
-  <si>
-    <t>Trinidadian or Tobagonian</t>
-  </si>
-  <si>
-    <t>Tunisian</t>
-  </si>
-  <si>
-    <t>Turkish</t>
-  </si>
-  <si>
-    <t>Turkmen</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Island</t>
-  </si>
-  <si>
-    <t>Tuvaluan</t>
-  </si>
-  <si>
-    <t>Ugandan</t>
-  </si>
-  <si>
-    <t>Ukrainian</t>
-  </si>
-  <si>
-    <t>Emirati, Emirian, Emiri</t>
-  </si>
-  <si>
-    <t>British, UK</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>Uruguayan</t>
-  </si>
-  <si>
-    <t>Uzbekistani, Uzbek</t>
-  </si>
-  <si>
-    <t>Ni-Vanuatu, Vanuatuan</t>
-  </si>
-  <si>
-    <t>Venezuelan</t>
-  </si>
-  <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>British Virgin Island</t>
-  </si>
-  <si>
-    <t>U.S. Virgin Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna, Wallisian or Futunan</t>
-  </si>
-  <si>
-    <t>Sahrawi, Sahrawian, Sahraouian</t>
-  </si>
-  <si>
-    <t>Yemeni</t>
-  </si>
-  <si>
-    <t>Zambian</t>
-  </si>
-  <si>
-    <t>Zimbabwean</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MANAGER NUMBER
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(If employee type is selected in N column)</t>
-    </r>
+    <t>BORROWER NAME
+(Last Name, First Name M.I Ext.)</t>
   </si>
 </sst>
 </file>
@@ -937,7 +205,7 @@
     <numFmt numFmtId="228" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="229" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot;-$&quot;#,##0.00&quot; &quot;;&quot; $-&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
   </numFmts>
-  <fonts count="77">
+  <fonts count="76">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1257,13 +525,6 @@
     <font>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2023,17 +1284,17 @@
   </borders>
   <cellStyleXfs count="1848">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0"/>
@@ -2050,17 +1311,17 @@
     <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="175" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="175" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="175" fontId="2" fillId="0" borderId="0"/>
@@ -2077,14 +1338,14 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0"/>
@@ -2095,16 +1356,16 @@
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="181" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="181" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2117,17 +1378,17 @@
     <xf numFmtId="181" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="183" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="183" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="184" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="182" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="184" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="183" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="183" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="184" fontId="2" fillId="0" borderId="0"/>
@@ -2144,17 +1405,17 @@
     <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="188" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="188" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="189" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="187" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="189" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="189" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="188" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="188" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="189" fontId="2" fillId="0" borderId="0"/>
@@ -2171,16 +1432,16 @@
     <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="189" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="193" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="193" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="192" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="192" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="193" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="194" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="194" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="193" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="193" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="193" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="194" fontId="2" fillId="0" borderId="0"/>
@@ -2195,16 +1456,16 @@
     <xf numFmtId="194" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="194" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="193" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="195" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="195" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="195" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="195" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="195" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="196" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="195" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="195" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="195" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="195" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="196" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2608,7 +1869,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="56" fillId="45" borderId="22" applyProtection="0"/>
+    <xf numFmtId="199" fontId="55" fillId="45" borderId="22" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2701,14 +1962,14 @@
     <xf numFmtId="0" fontId="7" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="6" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="59" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
@@ -2717,14 +1978,14 @@
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="59" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
@@ -2733,14 +1994,14 @@
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="59" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
@@ -2749,14 +2010,14 @@
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="59" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
@@ -2765,14 +2026,14 @@
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="59" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
@@ -2781,14 +2042,14 @@
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="59" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
@@ -2797,14 +2058,14 @@
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="59" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
@@ -2813,14 +2074,14 @@
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="59" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
@@ -2829,23 +2090,23 @@
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -2863,7 +2124,7 @@
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
@@ -2874,8 +2135,8 @@
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
@@ -2914,7 +2175,7 @@
     <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
@@ -2927,7 +2188,7 @@
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
@@ -2950,15 +2211,15 @@
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
@@ -2974,7 +2235,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2994,8 +2255,8 @@
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3005,7 +2266,7 @@
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3015,7 +2276,7 @@
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3025,28 +2286,28 @@
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="207" fontId="59" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="207" fontId="59" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="207" fontId="59" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="26" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="207" fontId="60" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="207" fontId="60" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="207" fontId="60" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="207" fontId="61" fillId="0" borderId="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
@@ -3090,11 +2351,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="199" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -3102,7 +2363,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="199" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -3111,10 +2372,10 @@
     <xf numFmtId="198" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="199" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="199" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3123,61 +2384,61 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="212" fontId="59" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="59" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="59" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="26" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="212" fontId="60" fillId="0" borderId="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="212" fontId="60" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="212" fontId="60" fillId="0" borderId="0">
+    <xf numFmtId="212" fontId="26" fillId="0" borderId="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="27" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="27" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="212" fontId="26" fillId="0" borderId="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="212" fontId="61" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="27" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="27" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="46" borderId="0">
+    <xf numFmtId="0" fontId="61" fillId="46" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3187,13 +2448,13 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="63" fillId="45" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="62" fillId="45" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="0"/>
-    <xf numFmtId="199" fontId="63" fillId="45" borderId="0"/>
+    <xf numFmtId="199" fontId="62" fillId="45" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="63" fillId="45" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="62" fillId="45" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0"/>
@@ -3207,7 +2468,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3218,7 +2479,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyProtection="0"/>
-    <xf numFmtId="199" fontId="64" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="199" fontId="63" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
@@ -3252,19 +2513,40 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="213" fontId="65" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="213" fontId="65" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="213" fontId="66" fillId="0" borderId="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="213" fontId="66" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
@@ -3276,28 +2558,7 @@
     <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="67" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="66" fillId="0" borderId="0">
+    <xf numFmtId="213" fontId="65" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="214" fontId="36" fillId="0" borderId="0">
@@ -3306,7 +2567,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="199" fontId="64" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="199" fontId="63" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
@@ -3315,7 +2576,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
@@ -3333,28 +2594,28 @@
     <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="213" fontId="65" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="213" fontId="65" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="213" fontId="65" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="36" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="213" fontId="66" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="66" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="66" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="214" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="67" fillId="0" borderId="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
@@ -3399,16 +2660,16 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="63" fillId="47" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="62" fillId="47" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="40" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="40" borderId="0"/>
-    <xf numFmtId="199" fontId="63" fillId="47" borderId="0"/>
+    <xf numFmtId="199" fontId="62" fillId="47" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="40" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="63" fillId="47" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="62" fillId="47" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="40" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="63" fillId="47" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="62" fillId="47" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3491,7 +2752,7 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="68" fillId="48" borderId="22" applyProtection="0"/>
+    <xf numFmtId="199" fontId="67" fillId="48" borderId="22" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3569,13 +2830,13 @@
     <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="216" fontId="69" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="216" fontId="68" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="217" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="217" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="216" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="216" fontId="68" fillId="0" borderId="0"/>
     <xf numFmtId="217" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="217" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="216" fontId="64" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="216" fontId="63" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="217" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="217" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -3598,18 +2859,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="197" fontId="24" fillId="0" borderId="0"/>
@@ -3617,16 +2878,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
@@ -3638,12 +2899,12 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="198" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="197" fontId="19" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
@@ -3708,10 +2969,10 @@
     <xf numFmtId="198" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="198" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
@@ -3729,36 +2990,36 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
@@ -3771,7 +3032,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
     <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
@@ -3780,32 +3041,32 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
@@ -3817,33 +3078,33 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -3852,78 +3113,78 @@
     <xf numFmtId="198" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="198" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="197" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="198" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="72" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="71" fillId="0" borderId="0"/>
     <xf numFmtId="198" fontId="44" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="72" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="71" fillId="0" borderId="0"/>
     <xf numFmtId="198" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="198" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -3938,7 +3199,7 @@
     <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
@@ -3951,11 +3212,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
@@ -3966,16 +3227,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -4001,7 +3262,7 @@
     <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="73" fillId="45" borderId="23" applyProtection="0"/>
+    <xf numFmtId="199" fontId="72" fillId="45" borderId="23" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -4074,15 +3335,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="221" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="221" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="221" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="221" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="221" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="221" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4174,30 +3435,30 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="74" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="73" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="222" fontId="74" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="222" fontId="74" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="222" fontId="73" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="222" fontId="73" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="223" fontId="46" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="223" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="223" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="223" fontId="46" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="222" fontId="75" fillId="0" borderId="0"/>
+    <xf numFmtId="222" fontId="74" fillId="0" borderId="0"/>
     <xf numFmtId="223" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="224" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="224" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="224" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="224" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="225" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="225" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="224" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="224" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="225" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="225" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="224" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="224" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="225" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="225" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="225" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -4307,10 +3568,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="227" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="228" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="229" fontId="54" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="227" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="228" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="229" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
@@ -4354,36 +3615,43 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="76" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="75" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="75" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="75" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="75" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="75" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="57" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="57" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="57" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="76" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1848">
     <cellStyle name="_area1sem" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6614,1416 +5882,197 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="31" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.08984375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.26953125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="26.7265625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="35" style="6" customWidth="1"/>
-    <col min="13" max="13" width="25.08984375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="19" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="31.81640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="31" style="6" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="28.26953125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="35" style="6" customWidth="1"/>
+    <col min="12" max="12" width="25.08984375" style="6" customWidth="1"/>
+    <col min="13" max="15" width="23.08984375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="23.26953125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="24.90625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.54296875" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="51.5" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" ht="43" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="K1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>22</v>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>SELECTIONS!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1 A2:A65536</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>SELECTIONS!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>SELECTIONS!$C$2:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>SELECTIONS!$D$2:$D$19</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F250"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="41.08984375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="29">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="12"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2D2401-47DA-4E1E-ABE3-C367B20717EC}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="31.81640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="47.26953125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4">
-      <c r="D40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4">
-      <c r="D47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4">
-      <c r="D48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4">
-      <c r="D73" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4">
-      <c r="D75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4">
-      <c r="D79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4">
-      <c r="D80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4">
-      <c r="D81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="4:4">
-      <c r="D84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4">
-      <c r="D85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="4:4">
-      <c r="D86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="4:4">
-      <c r="D87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="4:4">
-      <c r="D88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="4:4">
-      <c r="D89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="4:4">
-      <c r="D90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="4:4">
-      <c r="D91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="4:4">
-      <c r="D92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="4:4">
-      <c r="D93" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="4:4">
-      <c r="D94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="4:4">
-      <c r="D95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="4:4">
-      <c r="D96" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4">
-      <c r="D97" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="4:4">
-      <c r="D98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="4:4">
-      <c r="D99" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="4:4">
-      <c r="D101" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="4:4">
-      <c r="D102" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="103" spans="4:4">
-      <c r="D103" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="4:4">
-      <c r="D104" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="105" spans="4:4">
-      <c r="D105" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="4:4">
-      <c r="D106" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="4:4">
-      <c r="D107" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="108" spans="4:4">
-      <c r="D108" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="4:4">
-      <c r="D109" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="4:4">
-      <c r="D110" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="4:4">
-      <c r="D111" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="4:4">
-      <c r="D112" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4">
-      <c r="D113" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" spans="4:4">
-      <c r="D114" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="115" spans="4:4">
-      <c r="D115" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="116" spans="4:4">
-      <c r="D116" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="4:4">
-      <c r="D117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="4:4">
-      <c r="D118" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="4:4">
-      <c r="D119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="4:4">
-      <c r="D120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="4:4">
-      <c r="D121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="4:4">
-      <c r="D122" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" spans="4:4">
-      <c r="D123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="4:4">
-      <c r="D124" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="4:4">
-      <c r="D125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="4:4">
-      <c r="D126" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="4:4">
-      <c r="D127" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="4:4">
-      <c r="D128" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="4:4">
-      <c r="D129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="4:4">
-      <c r="D130" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="4:4">
-      <c r="D131" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="132" spans="4:4">
-      <c r="D132" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="4:4">
-      <c r="D133" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="134" spans="4:4">
-      <c r="D134" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="135" spans="4:4">
-      <c r="D135" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="136" spans="4:4">
-      <c r="D136" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="137" spans="4:4">
-      <c r="D137" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="4:4">
-      <c r="D138" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="139" spans="4:4">
-      <c r="D139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="4:4">
-      <c r="D140" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="4:4">
-      <c r="D141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="4:4">
-      <c r="D142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="4:4">
-      <c r="D143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="4:4">
-      <c r="D144" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="4:4">
-      <c r="D145" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="4:4">
-      <c r="D146" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="4:4">
-      <c r="D147" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="148" spans="4:4">
-      <c r="D148" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="4:4">
-      <c r="D149" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="150" spans="4:4">
-      <c r="D150" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="151" spans="4:4">
-      <c r="D151" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="4:4">
-      <c r="D152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="4:4">
-      <c r="D153" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="154" spans="4:4">
-      <c r="D154" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="155" spans="4:4">
-      <c r="D155" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="156" spans="4:4">
-      <c r="D156" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="157" spans="4:4">
-      <c r="D157" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="158" spans="4:4">
-      <c r="D158" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="159" spans="4:4">
-      <c r="D159" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="160" spans="4:4">
-      <c r="D160" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="161" spans="4:4">
-      <c r="D161" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="162" spans="4:4">
-      <c r="D162" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="4:4">
-      <c r="D163" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="164" spans="4:4">
-      <c r="D164" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="165" spans="4:4">
-      <c r="D165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="4:4">
-      <c r="D166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="4:4">
-      <c r="D167" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="4:4">
-      <c r="D168" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="4:4">
-      <c r="D169" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="170" spans="4:4">
-      <c r="D170" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="4:4">
-      <c r="D171" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" spans="4:4">
-      <c r="D172" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="173" spans="4:4">
-      <c r="D173" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="174" spans="4:4">
-      <c r="D174" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="175" spans="4:4">
-      <c r="D175" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="176" spans="4:4">
-      <c r="D176" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="177" spans="4:4">
-      <c r="D177" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="178" spans="4:4">
-      <c r="D178" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="179" spans="4:4">
-      <c r="D179" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="180" spans="4:4">
-      <c r="D180" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="181" spans="4:4">
-      <c r="D181" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="182" spans="4:4">
-      <c r="D182" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="183" spans="4:4">
-      <c r="D183" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="184" spans="4:4">
-      <c r="D184" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="185" spans="4:4">
-      <c r="D185" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="186" spans="4:4">
-      <c r="D186" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="187" spans="4:4">
-      <c r="D187" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="188" spans="4:4">
-      <c r="D188" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="189" spans="4:4">
-      <c r="D189" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="190" spans="4:4">
-      <c r="D190" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="191" spans="4:4">
-      <c r="D191" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="192" spans="4:4">
-      <c r="D192" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="193" spans="4:4">
-      <c r="D193" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="194" spans="4:4">
-      <c r="D194" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="195" spans="4:4">
-      <c r="D195" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="196" spans="4:4">
-      <c r="D196" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="197" spans="4:4">
-      <c r="D197" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="198" spans="4:4">
-      <c r="D198" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="199" spans="4:4">
-      <c r="D199" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="200" spans="4:4">
-      <c r="D200" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="201" spans="4:4">
-      <c r="D201" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="202" spans="4:4">
-      <c r="D202" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="203" spans="4:4">
-      <c r="D203" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="204" spans="4:4">
-      <c r="D204" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="205" spans="4:4">
-      <c r="D205" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="206" spans="4:4">
-      <c r="D206" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="207" spans="4:4">
-      <c r="D207" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="208" spans="4:4">
-      <c r="D208" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="209" spans="4:4">
-      <c r="D209" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="210" spans="4:4">
-      <c r="D210" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="211" spans="4:4">
-      <c r="D211" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="212" spans="4:4">
-      <c r="D212" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="213" spans="4:4">
-      <c r="D213" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="214" spans="4:4">
-      <c r="D214" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="215" spans="4:4">
-      <c r="D215" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="216" spans="4:4">
-      <c r="D216" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="217" spans="4:4">
-      <c r="D217" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="218" spans="4:4">
-      <c r="D218" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="219" spans="4:4">
-      <c r="D219" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="220" spans="4:4">
-      <c r="D220" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="221" spans="4:4">
-      <c r="D221" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="222" spans="4:4">
-      <c r="D222" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="223" spans="4:4">
-      <c r="D223" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="224" spans="4:4">
-      <c r="D224" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="225" spans="4:4">
-      <c r="D225" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="226" spans="4:4">
-      <c r="D226" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="227" spans="4:4">
-      <c r="D227" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="228" spans="4:4">
-      <c r="D228" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="229" spans="4:4">
-      <c r="D229" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="230" spans="4:4">
-      <c r="D230" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="231" spans="4:4">
-      <c r="D231" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="232" spans="4:4">
-      <c r="D232" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="233" spans="4:4">
-      <c r="D233" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="234" spans="4:4">
-      <c r="D234" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="235" spans="4:4">
-      <c r="D235" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="236" spans="4:4">
-      <c r="D236" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="237" spans="4:4">
-      <c r="D237" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="238" spans="4:4">
-      <c r="D238" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="239" spans="4:4">
-      <c r="D239" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="240" spans="4:4">
-      <c r="D240" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="241" spans="4:4">
-      <c r="D241" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="242" spans="4:4">
-      <c r="D242" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="243" spans="4:4">
-      <c r="D243" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="244" spans="4:4">
-      <c r="D244" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="245" spans="4:4">
-      <c r="D245" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="246" spans="4:4">
-      <c r="D246" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="247" spans="4:4">
-      <c r="D247" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="248" spans="4:4">
-      <c r="D248" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="249" spans="4:4">
-      <c r="D249" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="250" spans="4:4">
-      <c r="D250" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/employeeUpload/LoanUpload.xlsx
+++ b/employeeUpload/LoanUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ELendingTool\employeeUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3DA8E8-6429-4E1F-B37F-A028E42E4611}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E6940A-346A-4FFF-8D2C-F4493E0C143B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>LOAN APPLICATION #</t>
   </si>
@@ -51,9 +51,6 @@
     <t>DISBURSED BY</t>
   </si>
   <si>
-    <t>TERM TYPE</t>
-  </si>
-  <si>
     <t>TERM</t>
   </si>
   <si>
@@ -63,23 +60,10 @@
     <t>NO. OF REPAYMENTS</t>
   </si>
   <si>
-    <t>INTEREST TYPE</t>
-  </si>
-  <si>
     <t>INTEREST AMOUNT</t>
   </si>
   <si>
-    <t>INTEREST FREQUENCY</t>
-  </si>
-  <si>
     <t>CHARGE NAME</t>
-  </si>
-  <si>
-    <t>CHARGE TYPE
-(PERCENTAGE/FIXED)</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
   </si>
   <si>
     <t>BORROWER MONTHLY SALARY</t>
@@ -102,9 +86,6 @@
     <t>AMOUNT PAID</t>
   </si>
   <si>
-    <t>CHANGE</t>
-  </si>
-  <si>
     <t>CHANGE SENT THROUGH</t>
   </si>
   <si>
@@ -125,18 +106,33 @@
 YYYY-MM-DD</t>
   </si>
   <si>
-    <t>BRANCH</t>
+    <t>BORROWER NAME
+(Last Name, First Name M.I Ext.)</t>
   </si>
   <si>
-    <t>BORROWER NAME
-(Last Name, First Name M.I Ext.)</t>
+    <t>BRANCH NAME</t>
+  </si>
+  <si>
+    <t>TERM TYPE
+(Days, weeks, months, years)</t>
+  </si>
+  <si>
+    <t>INTEREST TYPE
+(Percentage | Flat Rate)</t>
+  </si>
+  <si>
+    <t>INTEREST FREQUENCY
+(Per day, per week, per month, per year, per loan)</t>
+  </si>
+  <si>
+    <t>AMOUNT TO BE COLLECTED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="67">
+  <numFmts count="68">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -204,18 +200,13 @@
     <numFmt numFmtId="227" formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot; - &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="228" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="229" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot;-$&quot;#,##0.00&quot; &quot;;&quot; $-&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="230" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="76">
+  <fonts count="75">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1284,2374 +1275,2377 @@
   </borders>
   <cellStyleXfs count="1848">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="182" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="191" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="191" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="192" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="194" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="194" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="194" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="194" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="194" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="194" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="194" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="194" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="194" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="194" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="195" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="55" fillId="45" borderId="22" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
+    <xf numFmtId="168" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="187" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="192" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="195" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="196" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="196" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="196" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="196" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="54" fillId="45" borderId="22" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="16" fillId="0" borderId="1">
+    <xf numFmtId="197" fontId="15" fillId="0" borderId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="16" fillId="0" borderId="2">
+    <xf numFmtId="198" fontId="15" fillId="0" borderId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="16" fillId="0" borderId="2">
+    <xf numFmtId="198" fontId="15" fillId="0" borderId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="16" fillId="0" borderId="2">
+    <xf numFmtId="198" fontId="15" fillId="0" borderId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="16" fillId="0" borderId="1">
+    <xf numFmtId="197" fontId="15" fillId="0" borderId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="16" fillId="0" borderId="1">
+    <xf numFmtId="197" fontId="15" fillId="0" borderId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="16" fillId="0" borderId="4">
+    <xf numFmtId="197" fontId="15" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="16" fillId="0" borderId="5">
+    <xf numFmtId="198" fontId="15" fillId="0" borderId="5">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="16" fillId="0" borderId="5">
+    <xf numFmtId="198" fontId="15" fillId="0" borderId="5">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="6" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="6" applyProtection="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="56" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="57" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="58" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="39" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="206" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="207" fontId="58" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="207" fontId="58" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="207" fontId="58" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="25" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="207" fontId="59" fillId="0" borderId="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="207" fontId="59" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="207" fontId="59" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="207" fontId="60" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="209" fontId="27" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="209" fontId="27" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="210" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="210" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="211" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="210" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="211" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="210" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="211" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="210" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="211" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="211" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="199" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="199" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="197" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="208" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="25" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="209" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="209" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="25" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="210" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="210" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="211" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="210" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="211" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="210" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="211" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="210" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="211" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="211" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="199" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="199" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="199" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="212" fontId="58" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="58" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="58" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="25" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="59" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="25" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="25" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="212" fontId="25" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="46" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="61" fillId="45" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0"/>
+    <xf numFmtId="199" fontId="61" fillId="45" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="61" fillId="45" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0"/>
+    <xf numFmtId="38" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyBorder="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyBorder="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyProtection="0"/>
+    <xf numFmtId="199" fontId="62" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="213" fontId="64" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="213" fontId="64" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="35" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="35" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="213" fontId="65" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="35" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="213" fontId="64" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="199" fontId="62" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="213" fontId="64" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="213" fontId="64" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="213" fontId="64" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="35" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="213" fontId="65" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="35" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="35" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="35" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyBorder="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="197" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="15" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="15" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="61" fillId="47" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0"/>
+    <xf numFmtId="199" fontId="61" fillId="47" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="61" fillId="47" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="61" fillId="47" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="15" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="15" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="15" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0"/>
+    <xf numFmtId="10" fontId="15" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="15" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="15" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="15" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="15" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="15" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="15" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="66" fillId="48" borderId="22" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="39" fillId="0" borderId="12">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="39" fillId="0" borderId="13">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="216" fontId="67" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="217" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="216" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="216" fontId="62" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="217" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="217" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="199" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="212" fontId="59" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="59" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="59" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="60" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="27" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="27" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="212" fontId="26" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="46" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="18" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="62" fillId="45" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0"/>
-    <xf numFmtId="199" fontId="62" fillId="45" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="62" fillId="45" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0"/>
-    <xf numFmtId="38" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyBorder="0">
+    </xf>
+    <xf numFmtId="197" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="198" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="218" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="219" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="198" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="15" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="15" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="15" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="15" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="71" fillId="45" borderId="23" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="44" fillId="0" borderId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="44" fillId="0" borderId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="44" fillId="0" borderId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="44" fillId="0" borderId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="44" fillId="0" borderId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="44" fillId="0" borderId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="221" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="221" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="221" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="72" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="222" fontId="72" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="222" fontId="72" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="223" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="223" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="223" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="223" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="222" fontId="73" fillId="0" borderId="0"/>
+    <xf numFmtId="223" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="224" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="224" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="225" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="225" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="224" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="225" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="225" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="224" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="225" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="225" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="225" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="225" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="225" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="226" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="225" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="225" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="18" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="18" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyBorder="0">
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="19" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="19" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="19" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="19" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="19" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="19" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="44" borderId="20" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyProtection="0"/>
-    <xf numFmtId="199" fontId="63" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="213" fontId="65" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="65" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="66" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="65" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="214" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="199" fontId="63" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="215" fontId="37" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="37" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="65" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="65" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="65" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="214" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="66" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="37" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="37" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="215" fontId="36" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="214" fontId="36" fillId="0" borderId="0" applyBorder="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyBorder="0">
+    <xf numFmtId="0" fontId="48" fillId="44" borderId="20" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="197" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="62" fillId="47" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0"/>
-    <xf numFmtId="199" fontId="62" fillId="47" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="62" fillId="47" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="62" fillId="47" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0"/>
-    <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="16" fillId="39" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="67" fillId="48" borderId="22" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="197" fontId="40" fillId="0" borderId="12">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="198" fontId="40" fillId="0" borderId="13">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="216" fontId="68" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="217" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="216" fontId="68" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="216" fontId="63" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="217" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="217" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="197" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="198" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="219" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="198" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="15" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="15" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="15" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="15" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="72" fillId="45" borderId="23" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="48" fillId="44" borderId="20" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="44" borderId="20" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="44" borderId="20" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="44" borderId="20" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="227" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="228" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="229" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="44" fillId="0" borderId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="44" fillId="0" borderId="2">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="44" fillId="0" borderId="2">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="44" fillId="0" borderId="2">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="44" fillId="0" borderId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="44" fillId="0" borderId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="74" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="74" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="74" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="74" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="45" fillId="0" borderId="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="198" fontId="45" fillId="0" borderId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="198" fontId="45" fillId="0" borderId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="198" fontId="45" fillId="0" borderId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="197" fontId="45" fillId="0" borderId="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="197" fontId="45" fillId="0" borderId="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="221" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="221" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="221" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="73" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="222" fontId="73" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="222" fontId="73" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="223" fontId="46" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="223" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="223" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="223" fontId="46" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="222" fontId="74" fillId="0" borderId="0"/>
-    <xf numFmtId="223" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="224" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="224" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="225" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="225" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="224" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="225" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="225" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="224" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="225" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="225" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="225" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="225" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="225" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="226" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="225" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="225" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="18" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="18" applyFill="0" applyBorder="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="19" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="19" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="19" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="19" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="19" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="19" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="44" borderId="20" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="44" borderId="20" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="44" borderId="20" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="44" borderId="20" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="44" borderId="20" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="44" borderId="20" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="227" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="228" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="229" fontId="53" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="197" fontId="45" fillId="0" borderId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="198" fontId="45" fillId="0" borderId="2">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="198" fontId="45" fillId="0" borderId="2">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="198" fontId="45" fillId="0" borderId="2">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="197" fontId="45" fillId="0" borderId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="197" fontId="45" fillId="0" borderId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="75" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="74" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="230" fontId="55" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="56" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="75" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="75" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="56" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="75" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="75" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="230" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1848">
     <cellStyle name="_area1sem" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5886,7 +5880,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5915,13 +5909,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
@@ -5936,40 +5930,54 @@
         <v>2</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>10</v>
+      <c r="O1" s="5" t="s">
+        <v>27</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{D6FF2BDF-ED83-4865-846F-1696D911B7DE}">
+      <formula1>1</formula1>
+      <formula2>1E+21</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{4B2C94F6-7A9F-4CD6-9CAD-A34A4CA464F5}">
+      <formula1>1</formula1>
+      <formula2>10000000000000000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{0B3487E4-88F0-43FC-A76C-3F84556E0D77}">
+      <formula1>1</formula1>
+      <formula2>10000000000000000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -5978,42 +5986,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="41.08984375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="31" style="13" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="12"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="12"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6026,56 +6017,62 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="31.81640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="47.26953125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="23.36328125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="47.26953125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="52.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
+      <c r="B1" s="13" t="s">
+        <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{64F9922E-A634-4420-9C9D-A277DA06F052}">
+      <formula1>0</formula1>
+      <formula2>10000000000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/employeeUpload/LoanUpload.xlsx
+++ b/employeeUpload/LoanUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ELendingTool\employeeUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E6940A-346A-4FFF-8D2C-F4493E0C143B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8AB46B-7E0E-406D-9026-B60D7BC9EC26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,14 +98,6 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>PAYMENT DATE
-YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>COLLECTION DATE
-YYYY-MM-DD</t>
-  </si>
-  <si>
     <t>BORROWER NAME
 (Last Name, First Name M.I Ext.)</t>
   </si>
@@ -126,6 +118,14 @@
   </si>
   <si>
     <t>AMOUNT TO BE COLLECTED</t>
+  </si>
+  <si>
+    <t>PAYMENT DATE
+YYYY-DD-MM</t>
+  </si>
+  <si>
+    <t>COLLECTION DATE
+YYYY-DD-MM</t>
   </si>
 </sst>
 </file>
@@ -5901,7 +5901,8 @@
     <col min="17" max="17" width="23.26953125" style="8" customWidth="1"/>
     <col min="18" max="18" width="24.90625" style="3" customWidth="1"/>
     <col min="19" max="19" width="20.54296875" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="1"/>
+    <col min="20" max="20" width="8.7265625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="43" customHeight="1">
@@ -5909,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -5930,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>6</v>
@@ -5942,13 +5943,13 @@
         <v>8</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>11</v>
@@ -5960,15 +5961,11 @@
         <v>13</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{D6FF2BDF-ED83-4865-846F-1696D911B7DE}">
-      <formula1>1</formula1>
-      <formula2>1E+21</formula2>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{4B2C94F6-7A9F-4CD6-9CAD-A34A4CA464F5}">
       <formula1>1</formula1>
       <formula2>10000000000000000000</formula2>
@@ -6017,7 +6014,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6039,16 +6036,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>16</v>

--- a/employeeUpload/LoanUpload.xlsx
+++ b/employeeUpload/LoanUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ELendingTool\employeeUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8AB46B-7E0E-406D-9026-B60D7BC9EC26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A553E3-A3FE-4C56-B040-50522729A912}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="LOAN DETAILS" sheetId="2" r:id="rId1"/>
     <sheet name="ADDITIONAL CHARGES" sheetId="3" r:id="rId2"/>
     <sheet name="PAYMENTS" sheetId="5" r:id="rId3"/>
+    <sheet name="COMMENTS" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>LOAN APPLICATION #</t>
   </si>
@@ -52,9 +53,6 @@
   </si>
   <si>
     <t>TERM</t>
-  </si>
-  <si>
-    <t>REPAYMENT CYCLE</t>
   </si>
   <si>
     <t>NO. OF REPAYMENTS</t>
@@ -120,21 +118,48 @@
     <t>AMOUNT TO BE COLLECTED</t>
   </si>
   <si>
-    <t>PAYMENT DATE
-YYYY-DD-MM</t>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REPAYMENT CYCLE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Separate by comma)</t>
+    </r>
+  </si>
+  <si>
+    <t>LOAN DATE
+YYYY-MM-DD</t>
   </si>
   <si>
     <t>COLLECTION DATE
-YYYY-DD-MM</t>
+YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>PAYMENT DATE
+YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>DATE OF COMMENT
+YYYY-MM-DD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="68">
+  <numFmts count="67">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.00_)"/>
@@ -202,7 +227,7 @@
     <numFmt numFmtId="229" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot;-$&quot;#,##0.00&quot; &quot;;&quot; $-&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="230" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="75">
+  <fonts count="76">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -671,6 +696,14 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3606,7 +3639,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="74" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -3626,12 +3659,6 @@
     <xf numFmtId="49" fontId="74" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="74" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="55" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3646,6 +3673,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="230" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1848">
     <cellStyle name="_area1sem" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5876,7 +5910,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5885,96 +5919,90 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="31.81640625" style="10" customWidth="1"/>
+    <col min="1" max="2" width="31.81640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="31" style="6" customWidth="1"/>
     <col min="4" max="4" width="31.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="24.08984375" style="6" customWidth="1"/>
     <col min="6" max="6" width="24.54296875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" style="9" customWidth="1"/>
     <col min="8" max="8" width="28.26953125" style="6" customWidth="1"/>
     <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
     <col min="10" max="10" width="18.81640625" style="6" customWidth="1"/>
     <col min="11" max="11" width="35" style="6" customWidth="1"/>
     <col min="12" max="12" width="25.08984375" style="6" customWidth="1"/>
     <col min="13" max="15" width="23.08984375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="22.1796875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="23.26953125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="23.26953125" style="15" customWidth="1"/>
     <col min="18" max="18" width="24.90625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.54296875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="1"/>
+    <col min="19" max="19" width="42.08984375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="20.54296875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="43" customHeight="1">
+    <row r="1" spans="1:20" ht="43" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>14</v>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>9</v>
+      <c r="P1" s="14" t="s">
+        <v>10</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
+      <c r="S1" s="11" t="s">
+        <v>28</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>22</v>
+      <c r="T1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{4B2C94F6-7A9F-4CD6-9CAD-A34A4CA464F5}">
-      <formula1>1</formula1>
-      <formula2>10000000000000000000</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{0B3487E4-88F0-43FC-A76C-3F84556E0D77}">
-      <formula1>1</formula1>
-      <formula2>10000000000000000</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -5991,8 +6019,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6000,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6013,54 +6041,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2D2401-47DA-4E1E-ABE3-C367B20717EC}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="47.26953125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="23.36328125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="47.26953125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="52.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>27</v>
+      <c r="B1" s="11" t="s">
+        <v>30</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>28</v>
+      <c r="C1" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -6073,4 +6099,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BA27FC-2C18-4D97-ACD1-ECBD9B2E5C72}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="30.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="51.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="58.54296875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>